--- a/LearningLoss/data/Loss/2023/importance_analysis.xlsx
+++ b/LearningLoss/data/Loss/2023/importance_analysis.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\TXST\research\EducationDataScience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j_t463\Code\DataLab12\educationDataScience\LearningLoss\data\Loss\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4EC65-91ED-4B72-AE3D-D238A22C47F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1109E9C-8E59-4F84-9662-CD5033B58E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1260" windowWidth="19637" windowHeight="10149" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="figures" sheetId="5" r:id="rId1"/>
-    <sheet name="Experiment4 math" sheetId="4" r:id="rId2"/>
+    <sheet name="Impact Score math" sheetId="4" r:id="rId2"/>
     <sheet name="Binary Scoring math" sheetId="3" r:id="rId3"/>
     <sheet name="importance_math" sheetId="1" r:id="rId4"/>
-    <sheet name="Experiment4 reading" sheetId="8" r:id="rId5"/>
+    <sheet name="Impact Score reading" sheetId="8" r:id="rId5"/>
     <sheet name="Binary ScoringReading" sheetId="6" r:id="rId6"/>
     <sheet name="importance_reading" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Experiment4 math'!$B$1:$K$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Impact Score math'!$B$1:$K$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1124,7 +1124,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1153,15 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5760,12 +5752,12 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -5782,7 +5774,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -5799,7 +5791,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
@@ -5816,7 +5808,7 @@
         <v>3.2857142857142856</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>138</v>
       </c>
@@ -5833,7 +5825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>144</v>
       </c>
@@ -5850,7 +5842,7 @@
         <v>4.4375</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>140</v>
       </c>
@@ -5867,7 +5859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>136</v>
       </c>
@@ -5884,7 +5876,7 @@
         <v>3.0833333333333335</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>133</v>
       </c>
@@ -5901,7 +5893,7 @@
         <v>3.8235294117647061</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
@@ -5918,7 +5910,7 @@
         <v>7.333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>143</v>
       </c>
@@ -5935,7 +5927,7 @@
         <v>4.7142857142857144</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -5952,7 +5944,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -5969,7 +5961,7 @@
         <v>4.7272727272727275</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="14">
         <f>SUM(B2:B12)</f>
         <v>48.499789504939272</v>
@@ -5987,12 +5979,12 @@
         <v>50.504968805704102</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>122</v>
       </c>
@@ -6009,7 +6001,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>134</v>
       </c>
@@ -6034,7 +6026,7 @@
         <v>10.377048523391066</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>132</v>
       </c>
@@ -6047,7 +6039,7 @@
         <v>5.9331914708310274</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" ref="D19:D29" si="3">100*D3/$D$13</f>
+        <f t="shared" ref="D19:D28" si="3">100*D3/$D$13</f>
         <v>6.0502890010117651</v>
       </c>
       <c r="E19" s="11">
@@ -6059,7 +6051,7 @@
         <v>6.3622794700713605</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>138</v>
       </c>
@@ -6084,7 +6076,7 @@
         <v>5.8548776866980949</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>144</v>
       </c>
@@ -6109,7 +6101,7 @@
         <v>8.9354737619862892</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>140</v>
       </c>
@@ -6134,7 +6126,7 @@
         <v>9.7419478667263135</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>136</v>
       </c>
@@ -6159,7 +6151,7 @@
         <v>5.2446508579029256</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>133</v>
       </c>
@@ -6184,7 +6176,7 @@
         <v>8.3919338887198904</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>162</v>
       </c>
@@ -6209,7 +6201,7 @@
         <v>17.802499950346721</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>143</v>
       </c>
@@ -6234,7 +6226,7 @@
         <v>9.1079287390396289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>126</v>
       </c>
@@ -6259,7 +6251,7 @@
         <v>8.4767970272707061</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>161</v>
       </c>
@@ -6284,7 +6276,7 @@
         <v>9.7045622278470063</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B29" s="11">
         <f>MAX(B18:B28)</f>
         <v>20.627763828200841</v>
@@ -6302,7 +6294,7 @@
         <v>14.520023488273287</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B30" s="11"/>
     </row>
   </sheetData>
@@ -6319,21 +6311,21 @@
       <selection activeCell="Q1" sqref="Q1:Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" style="11" customWidth="1"/>
-    <col min="6" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="11" customWidth="1"/>
-    <col min="9" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="7"/>
-    <col min="15" max="15" width="12.85546875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="4"/>
+    <col min="1" max="1" width="22.69140625" customWidth="1"/>
+    <col min="2" max="2" width="24.3046875" customWidth="1"/>
+    <col min="3" max="5" width="13.69140625" style="11" customWidth="1"/>
+    <col min="6" max="7" width="13.69140625" customWidth="1"/>
+    <col min="8" max="8" width="13.69140625" style="11" customWidth="1"/>
+    <col min="9" max="11" width="13.69140625" customWidth="1"/>
+    <col min="12" max="12" width="13.69140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="9.15234375" style="7"/>
+    <col min="15" max="15" width="12.84375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.15234375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -6383,7 +6375,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -6436,7 +6428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -6486,7 +6478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -6539,7 +6531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -6589,7 +6581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -6639,7 +6631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -6689,7 +6681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -6739,7 +6731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -6789,7 +6781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -6839,7 +6831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -6892,7 +6884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -6942,7 +6934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -6988,7 +6980,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -7030,7 +7022,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -7072,7 +7064,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -7114,7 +7106,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -7156,7 +7148,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -7198,7 +7190,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -7240,7 +7232,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -7282,7 +7274,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -7326,7 +7318,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -7365,7 +7357,7 @@
         <v>0.28557964944028158</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -7404,7 +7396,7 @@
         <v>0.45123175586034964</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -7443,7 +7435,7 @@
         <v>0.84060537632043808</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -7483,7 +7475,7 @@
       </c>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -7523,7 +7515,7 @@
       </c>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -7563,7 +7555,7 @@
       </c>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -7603,7 +7595,7 @@
       </c>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -7643,7 +7635,7 @@
       </c>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>138</v>
       </c>
@@ -7683,7 +7675,7 @@
       </c>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -7722,7 +7714,7 @@
         <v>0.52153452978636416</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -7761,7 +7753,7 @@
         <v>0.28560435491629144</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -7800,7 +7792,7 @@
         <v>1.4176458160490713</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -7839,7 +7831,7 @@
         <v>1.1887777739223999</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>138</v>
       </c>
@@ -7878,7 +7870,7 @@
         <v>1.4965009190604623</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -7921,7 +7913,7 @@
         <v>4.5449439903164617</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -7960,7 +7952,7 @@
         <v>0.65373815237467181</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -7999,7 +7991,7 @@
         <v>0.86920706261727132</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -8038,7 +8030,7 @@
         <v>1.1924267148990384</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -8077,7 +8069,7 @@
         <v>0.64732672199989238</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>144</v>
       </c>
@@ -8116,7 +8108,7 @@
         <v>0.91802893847878886</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -8155,7 +8147,7 @@
         <v>0.63824475621688537</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -8194,7 +8186,7 @@
         <v>0.64651481058179605</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -8233,7 +8225,7 @@
         <v>0.89193276575027192</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -8272,7 +8264,7 @@
         <v>1.1947843276810572</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -8311,7 +8303,7 @@
         <v>0.92088815183528583</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -8350,7 +8342,7 @@
         <v>1.9974789194778266</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -8389,7 +8381,7 @@
         <v>2.0695341167478394</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -8428,7 +8420,7 @@
         <v>0.26512640630467654</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -8467,7 +8459,7 @@
         <v>2.0730539987913699</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>144</v>
       </c>
@@ -8506,7 +8498,7 @@
         <v>2.2152277458672289</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -8549,7 +8541,7 @@
         <v>4.9557999844934928</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>139</v>
       </c>
@@ -8588,7 +8580,7 @@
         <v>1.0283302503269967</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -8627,7 +8619,7 @@
         <v>2.0350636475458468</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -8666,7 +8658,7 @@
         <v>6.777473785215464E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -8709,7 +8701,7 @@
         <v>2.3050484894925836</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -8748,7 +8740,7 @@
         <v>0.44511352858770081</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -8787,7 +8779,7 @@
         <v>0.32075955321301008</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -8826,7 +8818,7 @@
         <v>0.93266155221357971</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -8865,7 +8857,7 @@
         <v>0.84249870499131996</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -8904,7 +8896,7 @@
         <v>0.42798353909465026</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -8943,7 +8935,7 @@
         <v>0.43488194272909658</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -8982,7 +8974,7 @@
         <v>0.5394424203803988</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -9021,7 +9013,7 @@
         <v>0.46644198381812818</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -9060,7 +9052,7 @@
         <v>0.48159632217904691</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -9099,7 +9091,7 @@
         <v>1.7768852561599808</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -9138,7 +9130,7 @@
         <v>4.0704734309330387E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -9181,7 +9173,7 @@
         <v>4.4525846614499223</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -9220,7 +9212,7 @@
         <v>1.7177554597344404</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -9259,7 +9251,7 @@
         <v>1.1950535779492877</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -9298,7 +9290,7 @@
         <v>0.92278604228434702</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -9337,7 +9329,7 @@
         <v>1.3646191436259665</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -9376,7 +9368,7 @@
         <v>0.63590095523008083</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -9415,7 +9407,7 @@
         <v>0.59266491584748371</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -9454,7 +9446,7 @@
         <v>0.35263129319881664</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -9493,7 +9485,7 @@
         <v>0.49598480134067013</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -9532,7 +9524,7 @@
         <v>0.76001568793568319</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>133</v>
       </c>
@@ -9571,7 +9563,7 @@
         <v>0.73535905497139042</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>133</v>
       </c>
@@ -9610,7 +9602,7 @@
         <v>0.27775735967619419</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>133</v>
       </c>
@@ -9649,7 +9641,7 @@
         <v>0.61738282907689956</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>133</v>
       </c>
@@ -9688,7 +9680,7 @@
         <v>0.91075652608012747</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -9727,7 +9719,7 @@
         <v>2.0154420883630237</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -9766,7 +9758,7 @@
         <v>1.7588908545275543</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -9805,7 +9797,7 @@
         <v>2.380875150534477</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>123</v>
       </c>
@@ -9848,7 +9840,7 @@
         <v>10.959554982240286</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>123</v>
       </c>
@@ -9887,7 +9879,7 @@
         <v>1.9936561901222705</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>123</v>
       </c>
@@ -9926,7 +9918,7 @@
         <v>3.7463942907594561</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -9969,7 +9961,7 @@
         <v>4.4491819362052354</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>130</v>
       </c>
@@ -10009,7 +10001,7 @@
       </c>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>130</v>
       </c>
@@ -10048,7 +10040,7 @@
         <v>0.85334015344063263</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>130</v>
       </c>
@@ -10087,7 +10079,7 @@
         <v>0.88518153763862117</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>130</v>
       </c>
@@ -10126,7 +10118,7 @@
         <v>0.96465697333128964</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>130</v>
       </c>
@@ -10165,7 +10157,7 @@
         <v>0.70520947782254295</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -10204,7 +10196,7 @@
         <v>2.2126527048621392</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -10247,7 +10239,7 @@
         <v>4.1104518217569002</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -10286,7 +10278,7 @@
         <v>1.146393939810944</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -10325,7 +10317,7 @@
         <v>0.62744918137407812</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -10360,11 +10352,11 @@
         <v>0</v>
       </c>
       <c r="L98" s="12">
-        <f t="shared" ref="L98:L129" si="3">100*(C98/$C$116+D98/$D$116+E98/$E$116+F98/$F$116+G98/$G$116+H98/$H$116+I98/$I$116+J98/$J$116+K98/$K$116)/9</f>
+        <f t="shared" ref="L98:L115" si="3">100*(C98/$C$116+D98/$D$116+E98/$E$116+F98/$F$116+G98/$G$116+H98/$H$116+I98/$I$116+J98/$J$116+K98/$K$116)/9</f>
         <v>1.0498057696232648</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -10403,7 +10395,7 @@
         <v>0.98891335904476152</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -10442,7 +10434,7 @@
         <v>0.77240847516767008</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -10481,7 +10473,7 @@
         <v>1.3851384024804063</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -10520,7 +10512,7 @@
         <v>1.0684464135953067</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>126</v>
       </c>
@@ -10559,7 +10551,7 @@
         <v>0.92706456061375286</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -10598,7 +10590,7 @@
         <v>1.122327523844554</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>125</v>
       </c>
@@ -10641,7 +10633,7 @@
         <v>5.4493155276533622</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -10680,7 +10672,7 @@
         <v>1.4188500905848058</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -10719,7 +10711,7 @@
         <v>0.96829687031500888</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -10758,7 +10750,7 @@
         <v>1.3125634809435864</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -10797,7 +10789,7 @@
         <v>1.8722575005437174</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -10836,7 +10828,7 @@
         <v>1.5155476894336894</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -10875,7 +10867,7 @@
         <v>1.1100401496513927</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -10914,7 +10906,7 @@
         <v>0.74700275651220538</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -10953,7 +10945,7 @@
         <v>1.9857457877649745</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -10992,7 +10984,7 @@
         <v>1.431418726331811</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -11031,53 +11023,53 @@
         <v>1.9799208493717932</v>
       </c>
     </row>
-    <row r="116" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116"/>
       <c r="B116" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C116" s="10">
-        <f>SUM(C8:C108)</f>
+        <f t="shared" ref="C116:K116" si="4">SUM(C8:C108)</f>
         <v>0.86391160021976021</v>
       </c>
       <c r="D116" s="10">
-        <f>SUM(D8:D108)</f>
+        <f t="shared" si="4"/>
         <v>0.25816326530612393</v>
       </c>
       <c r="E116" s="10">
-        <f>SUM(E8:E108)</f>
+        <f t="shared" si="4"/>
         <v>1.2918367346938782</v>
       </c>
       <c r="F116" s="10">
-        <f>SUM(F8:F108)</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="G116" s="10">
-        <f>SUM(G8:G108)</f>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="H116" s="10">
-        <f>SUM(H8:H108)</f>
+        <f t="shared" si="4"/>
         <v>2.0080472841385526</v>
       </c>
       <c r="I116" s="10">
-        <f>SUM(I8:I108)</f>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="J116" s="10">
-        <f>SUM(J8:J108)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="K116" s="10">
-        <f>SUM(K8:K108)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="L116" s="10">
-        <f t="shared" ref="L116:M116" si="4">SUM(L1:L108)</f>
+        <f t="shared" ref="L116:M116" si="5">SUM(L1:L108)</f>
         <v>104.27434053659158</v>
       </c>
       <c r="M116" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.185757741751893</v>
       </c>
       <c r="O116" s="4"/>
@@ -11098,24 +11090,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9943301A-C9F8-42A9-A69D-7200B1624F91}">
   <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView topLeftCell="B86" workbookViewId="0">
-      <selection activeCell="L123" sqref="L123"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="L86" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
-    <col min="5" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="7"/>
-    <col min="15" max="15" width="12.85546875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.69140625" customWidth="1"/>
+    <col min="2" max="2" width="41.3046875" customWidth="1"/>
+    <col min="3" max="3" width="12.69140625" customWidth="1"/>
+    <col min="4" max="4" width="12.69140625" style="3" customWidth="1"/>
+    <col min="5" max="11" width="12.69140625" customWidth="1"/>
+    <col min="12" max="12" width="12.69140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.15234375" style="7"/>
+    <col min="15" max="15" width="12.84375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.15234375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -11168,7 +11160,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -11224,7 +11216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -11277,7 +11269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -11333,7 +11325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -11386,7 +11378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -11439,7 +11431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -11492,7 +11484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -11545,7 +11537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -11598,7 +11590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -11651,7 +11643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -11707,7 +11699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -11760,7 +11752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -11806,7 +11798,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -11848,7 +11840,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -11890,7 +11882,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -11932,7 +11924,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -11974,7 +11966,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -12016,7 +12008,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -12058,7 +12050,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -12100,7 +12092,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -12139,7 +12131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -12178,7 +12170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -12217,7 +12209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -12256,7 +12248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -12296,7 +12288,7 @@
       </c>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -12336,7 +12328,7 @@
       </c>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -12376,7 +12368,7 @@
       </c>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -12416,7 +12408,7 @@
       </c>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -12456,7 +12448,7 @@
       </c>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>138</v>
       </c>
@@ -12496,7 +12488,7 @@
       </c>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -12535,7 +12527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -12574,7 +12566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -12613,7 +12605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -12652,7 +12644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>138</v>
       </c>
@@ -12691,7 +12683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -12734,7 +12726,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -12773,7 +12765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -12812,7 +12804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -12851,7 +12843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -12890,7 +12882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>144</v>
       </c>
@@ -12929,7 +12921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -12968,7 +12960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -13007,7 +12999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -13046,7 +13038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -13085,7 +13077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -13124,7 +13116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -13163,7 +13155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -13202,7 +13194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -13241,7 +13233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -13280,7 +13272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>144</v>
       </c>
@@ -13319,7 +13311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -13362,7 +13354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>139</v>
       </c>
@@ -13401,7 +13393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -13440,7 +13432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -13479,7 +13471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -13522,7 +13514,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -13561,7 +13553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -13600,7 +13592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -13639,7 +13631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -13678,7 +13670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -13717,7 +13709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -13756,7 +13748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -13795,7 +13787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -13834,7 +13826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -13873,7 +13865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -13912,7 +13904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -13951,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -13994,7 +13986,7 @@
         <v>4.117647058823529</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -14033,7 +14025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -14072,7 +14064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -14111,7 +14103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -14150,7 +14142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -14189,7 +14181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -14228,7 +14220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -14267,7 +14259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -14306,7 +14298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -14345,7 +14337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>133</v>
       </c>
@@ -14384,7 +14376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>133</v>
       </c>
@@ -14423,7 +14415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>133</v>
       </c>
@@ -14462,7 +14454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>133</v>
       </c>
@@ -14501,7 +14493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -14540,7 +14532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -14579,7 +14571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -14618,7 +14610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>123</v>
       </c>
@@ -14661,7 +14653,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>123</v>
       </c>
@@ -14700,7 +14692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>123</v>
       </c>
@@ -14739,7 +14731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -14782,7 +14774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>130</v>
       </c>
@@ -14822,7 +14814,7 @@
       </c>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>130</v>
       </c>
@@ -14861,7 +14853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>130</v>
       </c>
@@ -14900,7 +14892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>130</v>
       </c>
@@ -14939,7 +14931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>130</v>
       </c>
@@ -14978,7 +14970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -15017,7 +15009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -15060,7 +15052,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -15099,7 +15091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -15138,7 +15130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -15177,7 +15169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -15216,7 +15208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -15255,7 +15247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -15294,7 +15286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -15333,7 +15325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>126</v>
       </c>
@@ -15372,7 +15364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -15411,7 +15403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>125</v>
       </c>
@@ -15454,7 +15446,7 @@
         <v>5.5454545454545459</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -15493,7 +15485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -15532,7 +15524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -15571,7 +15563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -15610,7 +15602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -15649,7 +15641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -15688,7 +15680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -15727,7 +15719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -15766,7 +15758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -15805,7 +15797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -15844,7 +15836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M116" s="7">
         <f>SUM(M2:M115)</f>
         <v>48.155244461420928</v>
@@ -15864,16 +15856,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15905,7 +15895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -15937,7 +15927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -15969,7 +15959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -16001,7 +15991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -16033,7 +16023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -16065,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -16097,7 +16087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -16129,7 +16119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -16161,7 +16151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -16193,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -16225,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -16257,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -16289,7 +16279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -16321,7 +16311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -16353,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -16385,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -16417,7 +16407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -16449,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -16481,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -16513,7 +16503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -16545,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -16577,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -16609,7 +16599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -16641,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -16673,7 +16663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -16705,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -16737,7 +16727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -16769,7 +16759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -16801,7 +16791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -16833,7 +16823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -16865,7 +16855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -16897,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -16929,7 +16919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -16961,7 +16951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -16993,7 +16983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -17025,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -17057,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -17089,7 +17079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -17121,7 +17111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -17153,7 +17143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -17185,7 +17175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -17217,7 +17207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -17249,7 +17239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -17281,7 +17271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -17313,7 +17303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -17345,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -17377,7 +17367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -17409,7 +17399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -17441,7 +17431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -17473,7 +17463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -17505,7 +17495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -17537,7 +17527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -17569,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -17601,7 +17591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -17633,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -17665,7 +17655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -17697,7 +17687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -17729,7 +17719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -17761,7 +17751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -17793,7 +17783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -17825,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -17857,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -17889,7 +17879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -17921,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -17953,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -17985,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -18017,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -18049,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -18081,7 +18071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -18113,7 +18103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -18145,7 +18135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -18177,7 +18167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -18209,7 +18199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -18241,7 +18231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -18273,7 +18263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -18305,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -18337,7 +18327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -18369,7 +18359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -18401,7 +18391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -18433,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -18465,7 +18455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -18497,7 +18487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -18529,7 +18519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -18561,7 +18551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -18593,7 +18583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -18625,7 +18615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -18657,7 +18647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -18689,7 +18679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -18721,7 +18711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -18753,7 +18743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -18785,7 +18775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -18817,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -18849,7 +18839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -18881,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -18913,7 +18903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -18945,7 +18935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -18977,7 +18967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -19009,7 +18999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -19041,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -19073,7 +19063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -19105,7 +19095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -19137,7 +19127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -19169,7 +19159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -19201,7 +19191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -19233,7 +19223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -19265,7 +19255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -19297,7 +19287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -19329,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -19361,7 +19351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -19393,7 +19383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -19425,7 +19415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -19457,7 +19447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -19489,7 +19479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -19521,7 +19511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -19565,22 +19555,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038B2E40-5467-4C0F-86A7-235A524E801F}">
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.69140625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="7"/>
-    <col min="15" max="15" width="12.85546875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="4"/>
+    <col min="3" max="11" width="10.69140625" customWidth="1"/>
+    <col min="12" max="12" width="13.69140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="9.15234375" style="7"/>
+    <col min="15" max="15" width="12.84375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.15234375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -19630,7 +19620,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
@@ -19665,7 +19655,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="12">
-        <f>100*(C2/$C$116+D2/$D$116+E2/$E$116+F2/$F$116+G2/$G$116+H2/$H$116+I2/$I$116+J2/$J$116+K2/$K$116)/9</f>
+        <f t="shared" ref="L2:L33" si="0">100*(C2/$C$116+D2/$D$116+E2/$E$116+F2/$F$116+G2/$G$116+H2/$H$116+I2/$I$116+J2/$J$116+K2/$K$116)/9</f>
         <v>1.5052192124285149</v>
       </c>
       <c r="M2" s="6">
@@ -19683,7 +19673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -19718,7 +19708,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="12">
-        <f>100*(C3/$C$116+D3/$D$116+E3/$E$116+F3/$F$116+G3/$G$116+H3/$H$116+I3/$I$116+J3/$J$116+K3/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>1.0789023602590173</v>
       </c>
       <c r="M3" s="6"/>
@@ -19733,7 +19723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>132</v>
       </c>
@@ -19768,7 +19758,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="12">
-        <f>100*(C4/$C$116+D4/$D$116+E4/$E$116+F4/$F$116+G4/$G$116+H4/$H$116+I4/$I$116+J4/$J$116+K4/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>1.583914197212392</v>
       </c>
       <c r="M4" s="6">
@@ -19786,7 +19776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -19821,7 +19811,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="12">
-        <f>100*(C5/$C$116+D5/$D$116+E5/$E$116+F5/$F$116+G5/$G$116+H5/$H$116+I5/$I$116+J5/$J$116+K5/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.84182708155110841</v>
       </c>
       <c r="M5" s="6"/>
@@ -19836,7 +19826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -19871,7 +19861,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="12">
-        <f>100*(C6/$C$116+D6/$D$116+E6/$E$116+F6/$F$116+G6/$G$116+H6/$H$116+I6/$I$116+J6/$J$116+K6/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.71095465098134936</v>
       </c>
       <c r="M6" s="6"/>
@@ -19886,7 +19876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -19921,7 +19911,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="12">
-        <f>100*(C7/$C$116+D7/$D$116+E7/$E$116+F7/$F$116+G7/$G$116+H7/$H$116+I7/$I$116+J7/$J$116+K7/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.55893942600342439</v>
       </c>
       <c r="M7" s="6"/>
@@ -19936,7 +19926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -19971,7 +19961,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="12">
-        <f>100*(C8/$C$116+D8/$D$116+E8/$E$116+F8/$F$116+G8/$G$116+H8/$H$116+I8/$I$116+J8/$J$116+K8/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.46581194879087751</v>
       </c>
       <c r="M8" s="6"/>
@@ -19986,7 +19976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -20021,7 +20011,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="12">
-        <f>100*(C9/$C$116+D9/$D$116+E9/$E$116+F9/$F$116+G9/$G$116+H9/$H$116+I9/$I$116+J9/$J$116+K9/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.37356514864366347</v>
       </c>
       <c r="M9" s="6"/>
@@ -20036,7 +20026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -20071,7 +20061,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="12">
-        <f>100*(C10/$C$116+D10/$D$116+E10/$E$116+F10/$F$116+G10/$G$116+H10/$H$116+I10/$I$116+J10/$J$116+K10/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.27833608179218366</v>
       </c>
       <c r="M10" s="6"/>
@@ -20086,7 +20076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>138</v>
       </c>
@@ -20121,7 +20111,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="12">
-        <f>100*(C11/$C$116+D11/$D$116+E11/$E$116+F11/$F$116+G11/$G$116+H11/$H$116+I11/$I$116+J11/$J$116+K11/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>1.5145881792935918</v>
       </c>
       <c r="M11" s="6">
@@ -20139,103 +20129,99 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12">
         <v>7.4947786956376201E-3</v>
       </c>
-      <c r="D12" s="16">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>5.744449619624282E-3</v>
       </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
-        <v>1</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
-        <v>1</v>
-      </c>
-      <c r="L12" s="17">
-        <f>100*(C12/$C$116+D12/$D$116+E12/$E$116+F12/$F$116+G12/$G$116+H12/$H$116+I12/$I$116+J12/$J$116+K12/$K$116)/9</f>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="0"/>
         <v>1.3290102976913729</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="16">
         <f>M105</f>
         <v>3.4511210985072509</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13">
         <v>7.6274497747376704E-3</v>
       </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>2.1735755317497281E-3</v>
       </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
-        <v>1</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <v>1</v>
-      </c>
-      <c r="L13" s="17">
-        <f>100*(C13/$C$116+D13/$D$116+E13/$E$116+F13/$F$116+G13/$G$116+H13/$H$116+I13/$I$116+J13/$J$116+K13/$K$116)/9</f>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="0"/>
         <v>1.2908080420383228</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="16">
+      <c r="Q13">
         <f>SUM(Q2:Q12)</f>
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -20270,14 +20256,11 @@
         <v>1</v>
       </c>
       <c r="L14" s="12">
-        <f>100*(C14/$C$116+D14/$D$116+E14/$E$116+F14/$F$116+G14/$G$116+H14/$H$116+I14/$I$116+J14/$J$116+K14/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>1.1716840939448374</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-    </row>
-    <row r="15" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -20312,14 +20295,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="12">
-        <f>100*(C15/$C$116+D15/$D$116+E15/$E$116+F15/$F$116+G15/$G$116+H15/$H$116+I15/$I$116+J15/$J$116+K15/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>1.1500226377275804</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-    </row>
-    <row r="16" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -20354,14 +20334,11 @@
         <v>0</v>
       </c>
       <c r="L16" s="12">
-        <f>100*(C16/$C$116+D16/$D$116+E16/$E$116+F16/$F$116+G16/$G$116+H16/$H$116+I16/$I$116+J16/$J$116+K16/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.88483084746370877</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-    </row>
-    <row r="17" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -20396,14 +20373,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="12">
-        <f>100*(C17/$C$116+D17/$D$116+E17/$E$116+F17/$F$116+G17/$G$116+H17/$H$116+I17/$I$116+J17/$J$116+K17/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.73163586966168337</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-    </row>
-    <row r="18" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -20438,14 +20412,11 @@
         <v>0</v>
       </c>
       <c r="L18" s="12">
-        <f>100*(C18/$C$116+D18/$D$116+E18/$E$116+F18/$F$116+G18/$G$116+H18/$H$116+I18/$I$116+J18/$J$116+K18/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.71543585274436317</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-    </row>
-    <row r="19" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -20480,14 +20451,11 @@
         <v>0</v>
       </c>
       <c r="L19" s="12">
-        <f>100*(C19/$C$116+D19/$D$116+E19/$E$116+F19/$F$116+G19/$G$116+H19/$H$116+I19/$I$116+J19/$J$116+K19/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.70564288507918371</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-    </row>
-    <row r="20" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -20522,14 +20490,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="12">
-        <f>100*(C20/$C$116+D20/$D$116+E20/$E$116+F20/$F$116+G20/$G$116+H20/$H$116+I20/$I$116+J20/$J$116+K20/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.6362022248440099</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-    </row>
-    <row r="21" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -20564,14 +20529,11 @@
         <v>0</v>
       </c>
       <c r="L21" s="12">
-        <f>100*(C21/$C$116+D21/$D$116+E21/$E$116+F21/$F$116+G21/$G$116+H21/$H$116+I21/$I$116+J21/$J$116+K21/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.59745571816188925</v>
       </c>
-      <c r="M21" s="18"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -20606,11 +20568,11 @@
         <v>0</v>
       </c>
       <c r="L22" s="12">
-        <f>100*(C22/$C$116+D22/$D$116+E22/$E$116+F22/$F$116+G22/$G$116+H22/$H$116+I22/$I$116+J22/$J$116+K22/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.5606260923120554</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -20645,11 +20607,11 @@
         <v>0</v>
       </c>
       <c r="L23" s="12">
-        <f>100*(C23/$C$116+D23/$D$116+E23/$E$116+F23/$F$116+G23/$G$116+H23/$H$116+I23/$I$116+J23/$J$116+K23/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.55195876420509848</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -20684,11 +20646,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="12">
-        <f>100*(C24/$C$116+D24/$D$116+E24/$E$116+F24/$F$116+G24/$G$116+H24/$H$116+I24/$I$116+J24/$J$116+K24/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.51285574476936124</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -20723,12 +20685,12 @@
         <v>0</v>
       </c>
       <c r="L25" s="12">
-        <f>100*(C25/$C$116+D25/$D$116+E25/$E$116+F25/$F$116+G25/$G$116+H25/$H$116+I25/$I$116+J25/$J$116+K25/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.49840520940381783</v>
       </c>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -20763,12 +20725,12 @@
         <v>0</v>
       </c>
       <c r="L26" s="12">
-        <f>100*(C26/$C$116+D26/$D$116+E26/$E$116+F26/$F$116+G26/$G$116+H26/$H$116+I26/$I$116+J26/$J$116+K26/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.49818094739506624</v>
       </c>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -20803,12 +20765,12 @@
         <v>0</v>
       </c>
       <c r="L27" s="12">
-        <f>100*(C27/$C$116+D27/$D$116+E27/$E$116+F27/$F$116+G27/$G$116+H27/$H$116+I27/$I$116+J27/$J$116+K27/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.48339014011979692</v>
       </c>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -20843,12 +20805,12 @@
         <v>0</v>
       </c>
       <c r="L28" s="12">
-        <f>100*(C28/$C$116+D28/$D$116+E28/$E$116+F28/$F$116+G28/$G$116+H28/$H$116+I28/$I$116+J28/$J$116+K28/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.47447998358883203</v>
       </c>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -20883,12 +20845,12 @@
         <v>0</v>
       </c>
       <c r="L29" s="12">
-        <f>100*(C29/$C$116+D29/$D$116+E29/$E$116+F29/$F$116+G29/$G$116+H29/$H$116+I29/$I$116+J29/$J$116+K29/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.45012635555573538</v>
       </c>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>138</v>
       </c>
@@ -20923,12 +20885,12 @@
         <v>0</v>
       </c>
       <c r="L30" s="12">
-        <f>100*(C30/$C$116+D30/$D$116+E30/$E$116+F30/$F$116+G30/$G$116+H30/$H$116+I30/$I$116+J30/$J$116+K30/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.43325028542337435</v>
       </c>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -20963,11 +20925,11 @@
         <v>0</v>
       </c>
       <c r="L31" s="12">
-        <f>100*(C31/$C$116+D31/$D$116+E31/$E$116+F31/$F$116+G31/$G$116+H31/$H$116+I31/$I$116+J31/$J$116+K31/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.39431125137319128</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -21002,11 +20964,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="12">
-        <f>100*(C32/$C$116+D32/$D$116+E32/$E$116+F32/$F$116+G32/$G$116+H32/$H$116+I32/$I$116+J32/$J$116+K32/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.38694858961570539</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -21041,11 +21003,11 @@
         <v>0</v>
       </c>
       <c r="L33" s="12">
-        <f>100*(C33/$C$116+D33/$D$116+E33/$E$116+F33/$F$116+G33/$G$116+H33/$H$116+I33/$I$116+J33/$J$116+K33/$K$116)/9</f>
+        <f t="shared" si="0"/>
         <v>0.38022245247291941</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -21080,11 +21042,11 @@
         <v>0</v>
       </c>
       <c r="L34" s="12">
-        <f>100*(C34/$C$116+D34/$D$116+E34/$E$116+F34/$F$116+G34/$G$116+H34/$H$116+I34/$I$116+J34/$J$116+K34/$K$116)/9</f>
+        <f t="shared" ref="L34:L65" si="1">100*(C34/$C$116+D34/$D$116+E34/$E$116+F34/$F$116+G34/$G$116+H34/$H$116+I34/$I$116+J34/$J$116+K34/$K$116)/9</f>
         <v>0.30346951458208171</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>138</v>
       </c>
@@ -21119,11 +21081,11 @@
         <v>0</v>
       </c>
       <c r="L35" s="12">
-        <f>100*(C35/$C$116+D35/$D$116+E35/$E$116+F35/$F$116+G35/$G$116+H35/$H$116+I35/$I$116+J35/$J$116+K35/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.28100450358206103</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>144</v>
       </c>
@@ -21158,7 +21120,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="12">
-        <f>100*(C36/$C$116+D36/$D$116+E36/$E$116+F36/$F$116+G36/$G$116+H36/$H$116+I36/$I$116+J36/$J$116+K36/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>2.1359277374072745</v>
       </c>
       <c r="M36" s="7">
@@ -21166,7 +21128,7 @@
         <v>3.6635870415410379</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>144</v>
       </c>
@@ -21201,50 +21163,50 @@
         <v>1</v>
       </c>
       <c r="L37" s="12">
-        <f>100*(C37/$C$116+D37/$D$116+E37/$E$116+F37/$F$116+G37/$G$116+H37/$H$116+I37/$I$116+J37/$J$116+K37/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>1.7174141486181842</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38">
         <v>9.3602869261887895E-3</v>
       </c>
-      <c r="D38" s="16">
-        <v>0</v>
-      </c>
-      <c r="E38" s="16">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>4.08163265306127E-3</v>
       </c>
-      <c r="F38" s="16">
-        <v>1</v>
-      </c>
-      <c r="G38" s="16">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>1.4749262536873156E-2</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38">
         <v>0.194697428424805</v>
       </c>
-      <c r="I38" s="16">
-        <v>0</v>
-      </c>
-      <c r="J38" s="16">
-        <v>0</v>
-      </c>
-      <c r="K38" s="16">
-        <v>0</v>
-      </c>
-      <c r="L38" s="17">
-        <f>100*(C38/$C$116+D38/$D$116+E38/$E$116+F38/$F$116+G38/$G$116+H38/$H$116+I38/$I$116+J38/$J$116+K38/$K$116)/9</f>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="13">
+        <f t="shared" si="1"/>
         <v>1.4573749885203329</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -21279,11 +21241,11 @@
         <v>0</v>
       </c>
       <c r="L39" s="12">
-        <f>100*(C39/$C$116+D39/$D$116+E39/$E$116+F39/$F$116+G39/$G$116+H39/$H$116+I39/$I$116+J39/$J$116+K39/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>1.1931437005778072</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -21318,11 +21280,11 @@
         <v>0</v>
       </c>
       <c r="L40" s="12">
-        <f>100*(C40/$C$116+D40/$D$116+E40/$E$116+F40/$F$116+G40/$G$116+H40/$H$116+I40/$I$116+J40/$J$116+K40/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>1.1162707244969072</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>144</v>
       </c>
@@ -21357,11 +21319,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="12">
-        <f>100*(C41/$C$116+D41/$D$116+E41/$E$116+F41/$F$116+G41/$G$116+H41/$H$116+I41/$I$116+J41/$J$116+K41/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>1.1045252339949239</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -21396,11 +21358,11 @@
         <v>0</v>
       </c>
       <c r="L42" s="12">
-        <f>100*(C42/$C$116+D42/$D$116+E42/$E$116+F42/$F$116+G42/$G$116+H42/$H$116+I42/$I$116+J42/$J$116+K42/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.9627283320614981</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -21435,11 +21397,11 @@
         <v>0</v>
       </c>
       <c r="L43" s="12">
-        <f>100*(C43/$C$116+D43/$D$116+E43/$E$116+F43/$F$116+G43/$G$116+H43/$H$116+I43/$I$116+J43/$J$116+K43/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.72398242318716466</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -21474,11 +21436,11 @@
         <v>0</v>
       </c>
       <c r="L44" s="12">
-        <f>100*(C44/$C$116+D44/$D$116+E44/$E$116+F44/$F$116+G44/$G$116+H44/$H$116+I44/$I$116+J44/$J$116+K44/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.69146808441091046</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -21513,11 +21475,11 @@
         <v>0</v>
       </c>
       <c r="L45" s="12">
-        <f>100*(C45/$C$116+D45/$D$116+E45/$E$116+F45/$F$116+G45/$G$116+H45/$H$116+I45/$I$116+J45/$J$116+K45/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.62374320960820706</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -21552,11 +21514,11 @@
         <v>0</v>
       </c>
       <c r="L46" s="12">
-        <f>100*(C46/$C$116+D46/$D$116+E46/$E$116+F46/$F$116+G46/$G$116+H46/$H$116+I46/$I$116+J46/$J$116+K46/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.5886059944291957</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -21591,11 +21553,11 @@
         <v>0</v>
       </c>
       <c r="L47" s="12">
-        <f>100*(C47/$C$116+D47/$D$116+E47/$E$116+F47/$F$116+G47/$G$116+H47/$H$116+I47/$I$116+J47/$J$116+K47/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.55884666994409615</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -21630,11 +21592,11 @@
         <v>0</v>
       </c>
       <c r="L48" s="12">
-        <f>100*(C48/$C$116+D48/$D$116+E48/$E$116+F48/$F$116+G48/$G$116+H48/$H$116+I48/$I$116+J48/$J$116+K48/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.50446429041424867</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -21669,11 +21631,11 @@
         <v>0</v>
       </c>
       <c r="L49" s="12">
-        <f>100*(C49/$C$116+D49/$D$116+E49/$E$116+F49/$F$116+G49/$G$116+H49/$H$116+I49/$I$116+J49/$J$116+K49/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.49157051976328137</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -21708,11 +21670,11 @@
         <v>0</v>
       </c>
       <c r="L50" s="12">
-        <f>100*(C50/$C$116+D50/$D$116+E50/$E$116+F50/$F$116+G50/$G$116+H50/$H$116+I50/$I$116+J50/$J$116+K50/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.46492026107289353</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>144</v>
       </c>
@@ -21747,12 +21709,12 @@
         <v>0</v>
       </c>
       <c r="L51" s="12">
-        <f>100*(C51/$C$116+D51/$D$116+E51/$E$116+F51/$F$116+G51/$G$116+H51/$H$116+I51/$I$116+J51/$J$116+K51/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.31936184765722569</v>
       </c>
       <c r="M51" s="10"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>139</v>
       </c>
@@ -21787,7 +21749,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="12">
-        <f>100*(C52/$C$116+D52/$D$116+E52/$E$116+F52/$F$116+G52/$G$116+H52/$H$116+I52/$I$116+J52/$J$116+K52/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>1.7688048859158281</v>
       </c>
       <c r="M52" s="7">
@@ -21795,46 +21757,46 @@
         <v>4.2925954630589178</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53">
         <v>9.7697061502416797E-3</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53">
         <v>2.0408163265306098E-3</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53">
         <v>1.02040816326534E-3</v>
       </c>
-      <c r="F53" s="16">
-        <v>1</v>
-      </c>
-      <c r="G53" s="16">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
         <v>1.3817730166123273E-2</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53">
         <v>0.122043306202434</v>
       </c>
-      <c r="I53" s="16">
-        <v>0</v>
-      </c>
-      <c r="J53" s="16">
-        <v>1</v>
-      </c>
-      <c r="K53" s="16">
-        <v>0</v>
-      </c>
-      <c r="L53" s="17">
-        <f>100*(C53/$C$116+D53/$D$116+E53/$E$116+F53/$F$116+G53/$G$116+H53/$H$116+I53/$I$116+J53/$J$116+K53/$K$116)/9</f>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" s="13">
+        <f t="shared" si="1"/>
         <v>1.3545836730208087</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -21869,11 +21831,11 @@
         <v>0</v>
       </c>
       <c r="L54" s="12">
-        <f>100*(C54/$C$116+D54/$D$116+E54/$E$116+F54/$F$116+G54/$G$116+H54/$H$116+I54/$I$116+J54/$J$116+K54/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.63958283191039988</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -21908,11 +21870,11 @@
         <v>0</v>
       </c>
       <c r="L55" s="12">
-        <f>100*(C55/$C$116+D55/$D$116+E55/$E$116+F55/$F$116+G55/$G$116+H55/$H$116+I55/$I$116+J55/$J$116+K55/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.5296240722118809</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>131</v>
       </c>
@@ -21947,7 +21909,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="12">
-        <f>100*(C56/$C$116+D56/$D$116+E56/$E$116+F56/$F$116+G56/$G$116+H56/$H$116+I56/$I$116+J56/$J$116+K56/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>1.5973836126916516</v>
       </c>
       <c r="M56" s="7">
@@ -21955,7 +21917,7 @@
         <v>2.5108000086809614</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -21990,11 +21952,11 @@
         <v>0</v>
       </c>
       <c r="L57" s="12">
-        <f>100*(C57/$C$116+D57/$D$116+E57/$E$116+F57/$F$116+G57/$G$116+H57/$H$116+I57/$I$116+J57/$J$116+K57/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>1.0595114031301007</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -22029,11 +21991,11 @@
         <v>0</v>
       </c>
       <c r="L58" s="12">
-        <f>100*(C58/$C$116+D58/$D$116+E58/$E$116+F58/$F$116+G58/$G$116+H58/$H$116+I58/$I$116+J58/$J$116+K58/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>1.0373430292940815</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -22068,11 +22030,11 @@
         <v>0</v>
       </c>
       <c r="L59" s="12">
-        <f>100*(C59/$C$116+D59/$D$116+E59/$E$116+F59/$F$116+G59/$G$116+H59/$H$116+I59/$I$116+J59/$J$116+K59/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.84354494925723023</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -22107,11 +22069,11 @@
         <v>0</v>
       </c>
       <c r="L60" s="12">
-        <f>100*(C60/$C$116+D60/$D$116+E60/$E$116+F60/$F$116+G60/$G$116+H60/$H$116+I60/$I$116+J60/$J$116+K60/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.71814260152593801</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -22146,11 +22108,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="12">
-        <f>100*(C61/$C$116+D61/$D$116+E61/$E$116+F61/$F$116+G61/$G$116+H61/$H$116+I61/$I$116+J61/$J$116+K61/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.67786016708980223</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -22185,11 +22147,11 @@
         <v>0</v>
       </c>
       <c r="L62" s="12">
-        <f>100*(C62/$C$116+D62/$D$116+E62/$E$116+F62/$F$116+G62/$G$116+H62/$H$116+I62/$I$116+J62/$J$116+K62/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.5663413132681252</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -22224,11 +22186,11 @@
         <v>0</v>
       </c>
       <c r="L63" s="12">
-        <f>100*(C63/$C$116+D63/$D$116+E63/$E$116+F63/$F$116+G63/$G$116+H63/$H$116+I63/$I$116+J63/$J$116+K63/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.56612314631429994</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -22263,11 +22225,11 @@
         <v>0</v>
       </c>
       <c r="L64" s="12">
-        <f>100*(C64/$C$116+D64/$D$116+E64/$E$116+F64/$F$116+G64/$G$116+H64/$H$116+I64/$I$116+J64/$J$116+K64/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.44416513050278394</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -22302,11 +22264,11 @@
         <v>0</v>
       </c>
       <c r="L65" s="12">
-        <f>100*(C65/$C$116+D65/$D$116+E65/$E$116+F65/$F$116+G65/$G$116+H65/$H$116+I65/$I$116+J65/$J$116+K65/$K$116)/9</f>
+        <f t="shared" si="1"/>
         <v>0.40890046354695114</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -22341,11 +22303,11 @@
         <v>0</v>
       </c>
       <c r="L66" s="12">
-        <f>100*(C66/$C$116+D66/$D$116+E66/$E$116+F66/$F$116+G66/$G$116+H66/$H$116+I66/$I$116+J66/$J$116+K66/$K$116)/9</f>
+        <f t="shared" ref="L66:L97" si="2">100*(C66/$C$116+D66/$D$116+E66/$E$116+F66/$F$116+G66/$G$116+H66/$H$116+I66/$I$116+J66/$J$116+K66/$K$116)/9</f>
         <v>0.31606069662408881</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -22380,11 +22342,11 @@
         <v>0</v>
       </c>
       <c r="L67" s="12">
-        <f>100*(C67/$C$116+D67/$D$116+E67/$E$116+F67/$F$116+G67/$G$116+H67/$H$116+I67/$I$116+J67/$J$116+K67/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.26670712331924351</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>133</v>
       </c>
@@ -22419,7 +22381,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="12">
-        <f>100*(C68/$C$116+D68/$D$116+E68/$E$116+F68/$F$116+G68/$G$116+H68/$H$116+I68/$I$116+J68/$J$116+K68/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>1.9835581090223142</v>
       </c>
       <c r="M68" s="7">
@@ -22427,7 +22389,7 @@
         <v>3.9536190306319021</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>129</v>
       </c>
@@ -22462,11 +22424,11 @@
         <v>1</v>
       </c>
       <c r="L69" s="12">
-        <f>100*(C69/$C$116+D69/$D$116+E69/$E$116+F69/$F$116+G69/$G$116+H69/$H$116+I69/$I$116+J69/$J$116+K69/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>1.8651428665889687</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>133</v>
       </c>
@@ -22501,89 +22463,89 @@
         <v>0</v>
       </c>
       <c r="L70" s="12">
-        <f>100*(C70/$C$116+D70/$D$116+E70/$E$116+F70/$F$116+G70/$G$116+H70/$H$116+I70/$I$116+J70/$J$116+K70/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>1.4957867565086873</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71">
         <v>6.1127106031418901E-3</v>
       </c>
-      <c r="D71" s="16">
-        <v>0</v>
-      </c>
-      <c r="E71" s="16">
-        <v>0</v>
-      </c>
-      <c r="F71" s="16">
-        <v>1</v>
-      </c>
-      <c r="G71" s="16">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
         <v>1.3507219375873311E-2</v>
       </c>
-      <c r="H71" s="16">
-        <v>0</v>
-      </c>
-      <c r="I71" s="16">
-        <v>1</v>
-      </c>
-      <c r="J71" s="16">
-        <v>0</v>
-      </c>
-      <c r="K71" s="16">
-        <v>1</v>
-      </c>
-      <c r="L71" s="17">
-        <f>100*(C71/$C$116+D71/$D$116+E71/$E$116+F71/$F$116+G71/$G$116+H71/$H$116+I71/$I$116+J71/$J$116+K71/$K$116)/9</f>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" s="13">
+        <f t="shared" si="2"/>
         <v>1.3999069828441872</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72">
         <v>5.1826262280789204E-3</v>
       </c>
-      <c r="D72" s="16">
-        <v>0</v>
-      </c>
-      <c r="E72" s="16">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
         <v>4.08163265306125E-3</v>
       </c>
-      <c r="F72" s="16">
-        <v>0</v>
-      </c>
-      <c r="G72" s="16">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
         <v>2.6393417171246699E-3</v>
       </c>
-      <c r="H72" s="16">
-        <v>0</v>
-      </c>
-      <c r="I72" s="16">
-        <v>1</v>
-      </c>
-      <c r="J72" s="16">
-        <v>0</v>
-      </c>
-      <c r="K72" s="16">
-        <v>1</v>
-      </c>
-      <c r="L72" s="17">
-        <f>100*(C72/$C$116+D72/$D$116+E72/$E$116+F72/$F$116+G72/$G$116+H72/$H$116+I72/$I$116+J72/$J$116+K72/$K$116)/9</f>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" s="13">
+        <f t="shared" si="2"/>
         <v>1.2399025566533188</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -22618,11 +22580,11 @@
         <v>1</v>
       </c>
       <c r="L73" s="12">
-        <f>100*(C73/$C$116+D73/$D$116+E73/$E$116+F73/$F$116+G73/$G$116+H73/$H$116+I73/$I$116+J73/$J$116+K73/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>1.2049470760334777</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -22657,11 +22619,11 @@
         <v>0</v>
       </c>
       <c r="L74" s="12">
-        <f>100*(C74/$C$116+D74/$D$116+E74/$E$116+F74/$F$116+G74/$G$116+H74/$H$116+I74/$I$116+J74/$J$116+K74/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.97494265685714288</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -22696,11 +22658,11 @@
         <v>0</v>
       </c>
       <c r="L75" s="12">
-        <f>100*(C75/$C$116+D75/$D$116+E75/$E$116+F75/$F$116+G75/$G$116+H75/$H$116+I75/$I$116+J75/$J$116+K75/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.84795448126941431</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -22735,11 +22697,11 @@
         <v>0</v>
       </c>
       <c r="L76" s="12">
-        <f>100*(C76/$C$116+D76/$D$116+E76/$E$116+F76/$F$116+G76/$G$116+H76/$H$116+I76/$I$116+J76/$J$116+K76/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.76622247480895456</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -22774,11 +22736,11 @@
         <v>0</v>
       </c>
       <c r="L77" s="12">
-        <f>100*(C77/$C$116+D77/$D$116+E77/$E$116+F77/$F$116+G77/$G$116+H77/$H$116+I77/$I$116+J77/$J$116+K77/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.74556072129696571</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>133</v>
       </c>
@@ -22813,11 +22775,11 @@
         <v>0</v>
       </c>
       <c r="L78" s="12">
-        <f>100*(C78/$C$116+D78/$D$116+E78/$E$116+F78/$F$116+G78/$G$116+H78/$H$116+I78/$I$116+J78/$J$116+K78/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.59319341690445193</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>133</v>
       </c>
@@ -22852,11 +22814,11 @@
         <v>0</v>
       </c>
       <c r="L79" s="12">
-        <f>100*(C79/$C$116+D79/$D$116+E79/$E$116+F79/$F$116+G79/$G$116+H79/$H$116+I79/$I$116+J79/$J$116+K79/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.49108593684540275</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>133</v>
       </c>
@@ -22891,11 +22853,11 @@
         <v>0</v>
       </c>
       <c r="L80" s="12">
-        <f>100*(C80/$C$116+D80/$D$116+E80/$E$116+F80/$F$116+G80/$G$116+H80/$H$116+I80/$I$116+J80/$J$116+K80/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.45567776421362477</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>133</v>
       </c>
@@ -22930,11 +22892,11 @@
         <v>0</v>
       </c>
       <c r="L81" s="12">
-        <f>100*(C81/$C$116+D81/$D$116+E81/$E$116+F81/$F$116+G81/$G$116+H81/$H$116+I81/$I$116+J81/$J$116+K81/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.39024628121353666</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>133</v>
       </c>
@@ -22969,11 +22931,11 @@
         <v>0</v>
       </c>
       <c r="L82" s="12">
-        <f>100*(C82/$C$116+D82/$D$116+E82/$E$116+F82/$F$116+G82/$G$116+H82/$H$116+I82/$I$116+J82/$J$116+K82/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.30297811726614338</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>133</v>
       </c>
@@ -23008,11 +22970,11 @@
         <v>0</v>
       </c>
       <c r="L83" s="12">
-        <f>100*(C83/$C$116+D83/$D$116+E83/$E$116+F83/$F$116+G83/$G$116+H83/$H$116+I83/$I$116+J83/$J$116+K83/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.17467585130553606</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>127</v>
       </c>
@@ -23047,11 +23009,11 @@
         <v>1</v>
       </c>
       <c r="L84" s="12">
-        <f>100*(C84/$C$116+D84/$D$116+E84/$E$116+F84/$F$116+G84/$G$116+H84/$H$116+I84/$I$116+J84/$J$116+K84/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>1.8710988305534531</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>123</v>
       </c>
@@ -23086,7 +23048,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="12">
-        <f>100*(C85/$C$116+D85/$D$116+E85/$E$116+F85/$F$116+G85/$G$116+H85/$H$116+I85/$I$116+J85/$J$116+K85/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>3.2935420459912401</v>
       </c>
       <c r="M85" s="7">
@@ -23094,7 +23056,7 @@
         <v>10.100434117036313</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>123</v>
       </c>
@@ -23129,11 +23091,11 @@
         <v>0</v>
       </c>
       <c r="L86" s="12">
-        <f>100*(C86/$C$116+D86/$D$116+E86/$E$116+F86/$F$116+G86/$G$116+H86/$H$116+I86/$I$116+J86/$J$116+K86/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>3.2221521783965534</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>123</v>
       </c>
@@ -23168,11 +23130,11 @@
         <v>0</v>
       </c>
       <c r="L87" s="12">
-        <f>100*(C87/$C$116+D87/$D$116+E87/$E$116+F87/$F$116+G87/$G$116+H87/$H$116+I87/$I$116+J87/$J$116+K87/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>1.059631363389441</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>130</v>
       </c>
@@ -23207,7 +23169,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="12">
-        <f>100*(C88/$C$116+D88/$D$116+E88/$E$116+F88/$F$116+G88/$G$116+H88/$H$116+I88/$I$116+J88/$J$116+K88/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>1.5384776517618319</v>
       </c>
       <c r="M88" s="7">
@@ -23215,7 +23177,7 @@
         <v>3.7346316164950903</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>130</v>
       </c>
@@ -23250,12 +23212,12 @@
         <v>0</v>
       </c>
       <c r="L89" s="12">
-        <f>100*(C89/$C$116+D89/$D$116+E89/$E$116+F89/$F$116+G89/$G$116+H89/$H$116+I89/$I$116+J89/$J$116+K89/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>1.2116772804292268</v>
       </c>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>130</v>
       </c>
@@ -23290,11 +23252,11 @@
         <v>0</v>
       </c>
       <c r="L90" s="12">
-        <f>100*(C90/$C$116+D90/$D$116+E90/$E$116+F90/$F$116+G90/$G$116+H90/$H$116+I90/$I$116+J90/$J$116+K90/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>1.1115091086636519</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>130</v>
       </c>
@@ -23329,11 +23291,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="12">
-        <f>100*(C91/$C$116+D91/$D$116+E91/$E$116+F91/$F$116+G91/$G$116+H91/$H$116+I91/$I$116+J91/$J$116+K91/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.84208888583443864</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>130</v>
       </c>
@@ -23368,11 +23330,11 @@
         <v>0</v>
       </c>
       <c r="L92" s="12">
-        <f>100*(C92/$C$116+D92/$D$116+E92/$E$116+F92/$F$116+G92/$G$116+H92/$H$116+I92/$I$116+J92/$J$116+K92/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.81640826598291805</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>130</v>
       </c>
@@ -23407,11 +23369,11 @@
         <v>0</v>
       </c>
       <c r="L93" s="12">
-        <f>100*(C93/$C$116+D93/$D$116+E93/$E$116+F93/$F$116+G93/$G$116+H93/$H$116+I93/$I$116+J93/$J$116+K93/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.68568392502124498</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -23446,11 +23408,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="12">
-        <f>100*(C94/$C$116+D94/$D$116+E94/$E$116+F94/$F$116+G94/$G$116+H94/$H$116+I94/$I$116+J94/$J$116+K94/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.32976021117309523</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -23485,7 +23447,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="12">
-        <f>100*(C95/$C$116+D95/$D$116+E95/$E$116+F95/$F$116+G95/$G$116+H95/$H$116+I95/$I$116+J95/$J$116+K95/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.96109996004290899</v>
       </c>
       <c r="M95" s="7">
@@ -23493,7 +23455,7 @@
         <v>3.1250245303105206</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -23528,11 +23490,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="12">
-        <f>100*(C96/$C$116+D96/$D$116+E96/$E$116+F96/$F$116+G96/$G$116+H96/$H$116+I96/$I$116+J96/$J$116+K96/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.95054790093073926</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -23567,11 +23529,11 @@
         <v>0</v>
       </c>
       <c r="L97" s="12">
-        <f>100*(C97/$C$116+D97/$D$116+E97/$E$116+F97/$F$116+G97/$G$116+H97/$H$116+I97/$I$116+J97/$J$116+K97/$K$116)/9</f>
+        <f t="shared" si="2"/>
         <v>0.9450989496376252</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -23606,11 +23568,11 @@
         <v>0</v>
       </c>
       <c r="L98" s="12">
-        <f>100*(C98/$C$116+D98/$D$116+E98/$E$116+F98/$F$116+G98/$G$116+H98/$H$116+I98/$I$116+J98/$J$116+K98/$K$116)/9</f>
+        <f t="shared" ref="L98:L129" si="3">100*(C98/$C$116+D98/$D$116+E98/$E$116+F98/$F$116+G98/$G$116+H98/$H$116+I98/$I$116+J98/$J$116+K98/$K$116)/9</f>
         <v>0.92256380982204655</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -23645,11 +23607,11 @@
         <v>0</v>
       </c>
       <c r="L99" s="12">
-        <f>100*(C99/$C$116+D99/$D$116+E99/$E$116+F99/$F$116+G99/$G$116+H99/$H$116+I99/$I$116+J99/$J$116+K99/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.89727263789103928</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -23684,11 +23646,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="12">
-        <f>100*(C100/$C$116+D100/$D$116+E100/$E$116+F100/$F$116+G100/$G$116+H100/$H$116+I100/$I$116+J100/$J$116+K100/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.89466396855205255</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -23723,11 +23685,11 @@
         <v>0</v>
       </c>
       <c r="L101" s="12">
-        <f>100*(C101/$C$116+D101/$D$116+E101/$E$116+F101/$F$116+G101/$G$116+H101/$H$116+I101/$I$116+J101/$J$116+K101/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.70946085615798582</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -23762,11 +23724,11 @@
         <v>0</v>
       </c>
       <c r="L102" s="12">
-        <f>100*(C102/$C$116+D102/$D$116+E102/$E$116+F102/$F$116+G102/$G$116+H102/$H$116+I102/$I$116+J102/$J$116+K102/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.65135328442096396</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>126</v>
       </c>
@@ -23801,11 +23763,11 @@
         <v>0</v>
       </c>
       <c r="L103" s="12">
-        <f>100*(C103/$C$116+D103/$D$116+E103/$E$116+F103/$F$116+G103/$G$116+H103/$H$116+I103/$I$116+J103/$J$116+K103/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.55305973634817507</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -23840,11 +23802,11 @@
         <v>0</v>
       </c>
       <c r="L104" s="12">
-        <f>100*(C104/$C$116+D104/$D$116+E104/$E$116+F104/$F$116+G104/$G$116+H104/$H$116+I104/$I$116+J104/$J$116+K104/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.32744022197276607</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>125</v>
       </c>
@@ -23879,7 +23841,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="12">
-        <f>100*(C105/$C$116+D105/$D$116+E105/$E$116+F105/$F$116+G105/$G$116+H105/$H$116+I105/$I$116+J105/$J$116+K105/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>1.1283641170325822</v>
       </c>
       <c r="M105" s="7">
@@ -23887,7 +23849,7 @@
         <v>3.4511210985072509</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -23922,11 +23884,11 @@
         <v>0</v>
       </c>
       <c r="L106" s="12">
-        <f>100*(C106/$C$116+D106/$D$116+E106/$E$116+F106/$F$116+G106/$G$116+H106/$H$116+I106/$I$116+J106/$J$116+K106/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.95560597528830726</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -23961,11 +23923,11 @@
         <v>0</v>
       </c>
       <c r="L107" s="12">
-        <f>100*(C107/$C$116+D107/$D$116+E107/$E$116+F107/$F$116+G107/$G$116+H107/$H$116+I107/$I$116+J107/$J$116+K107/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.92636849893815709</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -24000,11 +23962,11 @@
         <v>0</v>
       </c>
       <c r="L108" s="12">
-        <f>100*(C108/$C$116+D108/$D$116+E108/$E$116+F108/$F$116+G108/$G$116+H108/$H$116+I108/$I$116+J108/$J$116+K108/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.89663469965865117</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -24039,11 +24001,11 @@
         <v>0</v>
       </c>
       <c r="L109" s="12">
-        <f>100*(C109/$C$116+D109/$D$116+E109/$E$116+F109/$F$116+G109/$G$116+H109/$H$116+I109/$I$116+J109/$J$116+K109/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.8885389199491921</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -24078,11 +24040,11 @@
         <v>0</v>
       </c>
       <c r="L110" s="12">
-        <f>100*(C110/$C$116+D110/$D$116+E110/$E$116+F110/$F$116+G110/$G$116+H110/$H$116+I110/$I$116+J110/$J$116+K110/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.8858812023650392</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -24117,11 +24079,11 @@
         <v>0</v>
       </c>
       <c r="L111" s="12">
-        <f>100*(C111/$C$116+D111/$D$116+E111/$E$116+F111/$F$116+G111/$G$116+H111/$H$116+I111/$I$116+J111/$J$116+K111/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.82368484889754434</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -24156,11 +24118,11 @@
         <v>0</v>
       </c>
       <c r="L112" s="12">
-        <f>100*(C112/$C$116+D112/$D$116+E112/$E$116+F112/$F$116+G112/$G$116+H112/$H$116+I112/$I$116+J112/$J$116+K112/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.56069137974137573</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -24195,11 +24157,11 @@
         <v>0</v>
       </c>
       <c r="L113" s="12">
-        <f>100*(C113/$C$116+D113/$D$116+E113/$E$116+F113/$F$116+G113/$G$116+H113/$H$116+I113/$I$116+J113/$J$116+K113/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.48158867279594098</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -24234,11 +24196,11 @@
         <v>0</v>
       </c>
       <c r="L114" s="12">
-        <f>100*(C114/$C$116+D114/$D$116+E114/$E$116+F114/$F$116+G114/$G$116+H114/$H$116+I114/$I$116+J114/$J$116+K114/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>1.0935892706868529</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -24273,11 +24235,11 @@
         <v>0</v>
       </c>
       <c r="L115" s="12">
-        <f>100*(C115/$C$116+D115/$D$116+E115/$E$116+F115/$F$116+G115/$G$116+H115/$H$116+I115/$I$116+J115/$J$116+K115/$K$116)/9</f>
+        <f t="shared" si="3"/>
         <v>0.84963543554129817</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>187</v>
       </c>
@@ -24289,35 +24251,35 @@
         <v>0.99999999999999822</v>
       </c>
       <c r="D116">
-        <f t="shared" ref="D116:K116" si="0">SUM(D2:D115)</f>
+        <f t="shared" ref="D116:K116" si="4">SUM(D2:D115)</f>
         <v>0.16020408163265235</v>
       </c>
       <c r="E116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.43877551020408301</v>
       </c>
       <c r="F116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="G116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="H116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.2679554832883002</v>
       </c>
       <c r="I116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="J116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="K116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="L116" s="10">
@@ -24338,22 +24300,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E369FF2-CAAB-445B-90E9-11B7A085D4CB}">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="11" width="10.7109375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="7"/>
-    <col min="14" max="14" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.15234375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.3046875" customWidth="1"/>
+    <col min="5" max="11" width="10.69140625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="9.15234375" style="7"/>
+    <col min="14" max="14" width="4.53515625" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -24404,7 +24366,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -24458,7 +24420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -24508,7 +24470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -24562,7 +24524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -24613,7 +24575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -24664,7 +24626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -24715,7 +24677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -24766,7 +24728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -24817,7 +24779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -24868,7 +24830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -24922,7 +24884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -24973,7 +24935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -25020,7 +24982,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -25060,7 +25022,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -25100,7 +25062,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -25140,7 +25102,7 @@
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -25179,7 +25141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -25218,7 +25180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -25257,7 +25219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -25296,7 +25258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -25335,7 +25297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -25374,7 +25336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -25413,7 +25375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -25452,7 +25414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -25492,7 +25454,7 @@
       </c>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -25532,7 +25494,7 @@
       </c>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -25572,7 +25534,7 @@
       </c>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -25612,7 +25574,7 @@
       </c>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -25652,7 +25614,7 @@
       </c>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>138</v>
       </c>
@@ -25692,7 +25654,7 @@
       </c>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -25731,7 +25693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -25770,7 +25732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -25809,7 +25771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -25848,7 +25810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>138</v>
       </c>
@@ -25887,7 +25849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -25930,7 +25892,7 @@
         <v>4.4375</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -25969,7 +25931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -26008,7 +25970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -26047,7 +26009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -26086,7 +26048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>144</v>
       </c>
@@ -26125,7 +26087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -26164,7 +26126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -26203,7 +26165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -26242,7 +26204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -26281,7 +26243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -26320,7 +26282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -26359,7 +26321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -26398,7 +26360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -26437,7 +26399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -26476,7 +26438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>144</v>
       </c>
@@ -26515,7 +26477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -26558,7 +26520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>139</v>
       </c>
@@ -26597,7 +26559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -26636,7 +26598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -26675,7 +26637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -26718,7 +26680,7 @@
         <v>3.0833333333333335</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -26757,7 +26719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -26796,7 +26758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -26835,7 +26797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -26874,7 +26836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -26913,7 +26875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -26952,7 +26914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -26991,7 +26953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -27030,7 +26992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -27069,7 +27031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -27108,7 +27070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -27147,7 +27109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -27190,7 +27152,7 @@
         <v>3.8235294117647061</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -27229,7 +27191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -27268,7 +27230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -27307,7 +27269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -27346,7 +27308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -27385,7 +27347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -27424,7 +27386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -27463,7 +27425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -27502,7 +27464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -27541,7 +27503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -27580,7 +27542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>133</v>
       </c>
@@ -27619,7 +27581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>133</v>
       </c>
@@ -27658,7 +27620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>133</v>
       </c>
@@ -27697,7 +27659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>133</v>
       </c>
@@ -27736,7 +27698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>133</v>
       </c>
@@ -27775,7 +27737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -27814,7 +27776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>123</v>
       </c>
@@ -27857,7 +27819,7 @@
         <v>7.333333333333333</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>123</v>
       </c>
@@ -27896,7 +27858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>123</v>
       </c>
@@ -27935,7 +27897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -27978,7 +27940,7 @@
         <v>4.7142857142857144</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>130</v>
       </c>
@@ -28018,7 +27980,7 @@
       </c>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>130</v>
       </c>
@@ -28057,7 +28019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>130</v>
       </c>
@@ -28096,7 +28058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>130</v>
       </c>
@@ -28135,7 +28097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>130</v>
       </c>
@@ -28174,7 +28136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -28213,7 +28175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -28256,7 +28218,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -28295,7 +28257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -28334,7 +28296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -28373,7 +28335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -28412,7 +28374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -28451,7 +28413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -28490,7 +28452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -28529,7 +28491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>126</v>
       </c>
@@ -28568,7 +28530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -28607,7 +28569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>125</v>
       </c>
@@ -28650,7 +28612,7 @@
         <v>4.7272727272727275</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -28689,7 +28651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -28728,7 +28690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -28767,7 +28729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -28806,7 +28768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -28845,7 +28807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -28884,7 +28846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -28923,7 +28885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -28962,7 +28924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -29001,7 +28963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -29053,13 +29015,13 @@
       <selection activeCell="K2" sqref="K2:K115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="15">
         <v>1</v>
       </c>
@@ -29097,7 +29059,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -29129,11 +29091,11 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <f>(114-F2)/(114*56.5)</f>
+        <f t="shared" ref="K2:K33" si="0">(114-F2)/(114*56.5)</f>
         <v>2.6393417171246699E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -29165,11 +29127,11 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <f>(114-F3)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>4.657661853749418E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -29201,11 +29163,11 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <f>(114-F4)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.3972985561248254E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -29237,11 +29199,11 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f>(114-F5)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>9.3153237074988359E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -29273,11 +29235,11 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f>(114-F6)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.2109920819748486E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -29309,11 +29271,11 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f>(114-F7)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>3.2603632976245926E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -29345,11 +29307,11 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f>(114-F8)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.6301816488122962E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -29381,11 +29343,11 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <f>(114-F9)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.0867877658748642E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -29417,11 +29379,11 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f>(114-F10)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.2575687005123428E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -29453,11 +29415,11 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <f>(114-F11)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.6612327278372925E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -29489,11 +29451,11 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f>(114-F12)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>3.1051079024996117E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -29525,11 +29487,11 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <f>(114-F13)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>7.4522589659990687E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -29561,11 +29523,11 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <f>(114-F14)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.6457071883247944E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -29597,11 +29559,11 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f>(114-F15)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.04021114733737E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -29633,11 +29595,11 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f>(114-F16)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>5.4339388293743211E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -29669,11 +29631,11 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <f>(114-F17)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.1954665424623506E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -29705,11 +29667,11 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <f>(114-F18)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>4.3471510634994562E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -29741,11 +29703,11 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <f>(114-F19)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.7233348858872847E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -29777,11 +29739,11 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <f>(114-F20)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.1488899239248564E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -29813,11 +29775,11 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <f>(114-F21)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>7.918025151374011E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -29849,11 +29811,11 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <f>(114-F22)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.1644154634373545E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -29885,11 +29847,11 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <f>(114-F23)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.5680794907623041E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -29921,11 +29883,11 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <f>(114-F24)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.5525539512498059E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -29957,11 +29919,11 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f>(114-F25)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>7.6075143611240492E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -29993,11 +29955,11 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <f>(114-F26)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.8630647414997672E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -30029,11 +29991,11 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <f>(114-F27)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>5.2786834342493398E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -30065,11 +30027,11 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <f>(114-F28)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>5.1234280391243593E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -30101,11 +30063,11 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <f>(114-F29)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>2.0183201366247476E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -30137,11 +30099,11 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <f>(114-F30)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.055736686849868E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -30173,11 +30135,11 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <f>(114-F31)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.4128240956373234E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -30209,11 +30171,11 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <f>(114-F32)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.4438751746623195E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -30245,11 +30207,11 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <f>(114-F33)/(114*56.5)</f>
+        <f t="shared" si="0"/>
         <v>1.6146561092997981E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -30281,11 +30243,11 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <f>(114-F34)/(114*56.5)</f>
+        <f t="shared" ref="K34:K65" si="1">(114-F34)/(114*56.5)</f>
         <v>1.086787765874864E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -30317,11 +30279,11 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <f>(114-F35)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.2420431609998447E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -30353,11 +30315,11 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <f>(114-F36)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>8.6943021269989124E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -30389,11 +30351,11 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <f>(114-F37)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>9.004812917248875E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -30425,11 +30387,11 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <f>(114-F38)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>4.657661853749418E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -30461,11 +30423,11 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <f>(114-F39)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>9.1600683123738546E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -30497,11 +30459,11 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <f>(114-F40)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.7078093463747865E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -30533,11 +30495,11 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <f>(114-F41)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>4.0366402732494953E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -30569,11 +30531,11 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <f>(114-F42)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>4.5024064586244375E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -30605,11 +30567,11 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <f>(114-F43)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>7.141748175749107E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -30641,11 +30603,11 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <f>(114-F44)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.319670858562335E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -30677,11 +30639,11 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <f>(114-F45)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.6922838068622884E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -30713,11 +30675,11 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <f>(114-F46)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.6767582673497903E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -30749,11 +30711,11 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <f>(114-F47)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>9.9363452879987577E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -30785,11 +30747,11 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <f>(114-F48)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.5370284117373078E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -30821,11 +30783,11 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <f>(114-F49)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.0091600683123739E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -30857,11 +30819,11 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <f>(114-F50)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.0712622263623661E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -30893,11 +30855,11 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <f>(114-F51)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>2.4840863219996894E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -30929,11 +30891,11 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <f>(114-F52)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>8.2285359416239719E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -30965,11 +30927,11 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <f>(114-F53)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.5059773327123117E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -31001,11 +30963,11 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <f>(114-F54)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>8.8495575221238937E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -31037,11 +30999,11 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <f>(114-F55)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.7543859649122806E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -31073,11 +31035,11 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <f>(114-F56)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>6.5207265952491851E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -31109,11 +31071,11 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <f>(114-F57)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>6.6759819903741656E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -31145,11 +31107,11 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <f>(114-F58)/(114*56.5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -31181,11 +31143,11 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <f>(114-F59)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.5525539512498058E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -31217,11 +31179,11 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <f>(114-F60)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.5525539512498059E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -31253,11 +31215,11 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <f>(114-F61)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.2265176214873467E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -31289,11 +31251,11 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <f>(114-F62)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.2420431609998447E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -31325,11 +31287,11 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <f>(114-F63)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>8.5390467318739328E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -31361,11 +31323,11 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <f>(114-F64)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>1.0246856078248719E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>179</v>
       </c>
@@ -31397,11 +31359,11 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <f>(114-F65)/(114*56.5)</f>
+        <f t="shared" si="1"/>
         <v>3.1051079024996118E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>178</v>
       </c>
@@ -31433,11 +31395,11 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <f>(114-F66)/(114*56.5)</f>
+        <f t="shared" ref="K66:K97" si="2">(114-F66)/(114*56.5)</f>
         <v>5.8997050147492625E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>180</v>
       </c>
@@ -31469,11 +31431,11 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <f>(114-F67)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>6.9864927806241265E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>186</v>
       </c>
@@ -31505,11 +31467,11 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <f>(114-F68)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>9.7810898928737781E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>185</v>
       </c>
@@ -31541,11 +31503,11 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <f>(114-F69)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>7.2970035708740883E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>184</v>
       </c>
@@ -31577,11 +31539,11 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <f>(114-F70)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>2.9498525073746312E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>172</v>
       </c>
@@ -31613,11 +31575,11 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <f>(114-F71)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>6.2102158049992236E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>183</v>
       </c>
@@ -31649,11 +31611,11 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <f>(114-F72)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>9.6258344977487968E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>182</v>
       </c>
@@ -31685,11 +31647,11 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <f>(114-F73)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>3.7261294829995344E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>177</v>
       </c>
@@ -31721,11 +31683,11 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <f>(114-F74)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.1799410029498525E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -31757,11 +31719,11 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <f>(114-F75)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>2.7945971122496508E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -31793,11 +31755,11 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <f>(114-F76)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>6.2102158049992234E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -31829,11 +31791,11 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <f>(114-F77)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.1178388448998603E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -31865,11 +31827,11 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <f>(114-F78)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.5836050302748022E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -31901,11 +31863,11 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <f>(114-F79)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>5.5891942244993015E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>175</v>
       </c>
@@ -31937,11 +31899,11 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <f>(114-F80)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>6.831237385499146E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -31973,11 +31935,11 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <f>(114-F81)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.1023133053873622E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>174</v>
       </c>
@@ -32009,11 +31971,11 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <f>(114-F82)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.1333643844123583E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -32045,11 +32007,11 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <f>(114-F83)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>3.8813848781245148E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -32081,11 +32043,11 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <f>(114-F84)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.2730942400248409E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -32117,11 +32079,11 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <f>(114-F85)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.5991305697873E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -32153,11 +32115,11 @@
         <v>1</v>
       </c>
       <c r="K86">
-        <f>(114-F86)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.3507219375873311E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -32189,11 +32151,11 @@
         <v>1</v>
       </c>
       <c r="K87">
-        <f>(114-F87)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>2.328830926874709E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -32225,11 +32187,11 @@
         <v>1</v>
       </c>
       <c r="K88">
-        <f>(114-F88)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.7078093463747866E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -32261,11 +32223,11 @@
         <v>1</v>
       </c>
       <c r="K89">
-        <f>(114-F89)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>4.1918956683744757E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -32297,11 +32259,11 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <f>(114-F90)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.3662474770998292E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -32333,11 +32295,11 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <f>(114-F91)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.3817730166123273E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -32369,11 +32331,11 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <f>(114-F92)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.4283496351498214E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -32405,11 +32367,11 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <f>(114-F93)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.3972985561248253E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -32441,11 +32403,11 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <f>(114-F94)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>4.8129172488743984E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -32477,11 +32439,11 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <f>(114-F95)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.5215028722248098E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -32513,11 +32475,11 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <f>(114-F96)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>9.4705791026238155E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -32549,11 +32511,11 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <f>(114-F97)/(114*56.5)</f>
+        <f t="shared" si="2"/>
         <v>1.4904517931998137E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -32585,11 +32547,11 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <f>(114-F98)/(114*56.5)</f>
+        <f t="shared" ref="K98:K115" si="3">(114-F98)/(114*56.5)</f>
         <v>6.3654712001242047E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -32621,11 +32583,11 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <f>(114-F99)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>7.7627697562490292E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -32657,11 +32619,11 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <f>(114-F100)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>4.9681726439993789E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -32693,11 +32655,11 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <f>(114-F101)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>9.3153237074988359E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -32729,11 +32691,11 @@
         <v>1</v>
       </c>
       <c r="K102">
-        <f>(114-F102)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>8.3837913367489515E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -32765,11 +32727,11 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <f>(114-F103)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>3.415618692749573E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -32801,11 +32763,11 @@
         <v>1</v>
       </c>
       <c r="K104">
-        <f>(114-F104)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>3.5708740878745535E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -32837,11 +32799,11 @@
         <v>1</v>
       </c>
       <c r="K105">
-        <f>(114-F105)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>5.744449619624282E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -32873,11 +32835,11 @@
         <v>1</v>
       </c>
       <c r="K106">
-        <f>(114-F106)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>2.1735755317497281E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -32909,11 +32871,11 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <f>(114-F107)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>1.4594007141748177E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -32945,11 +32907,11 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <f>(114-F108)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>7.7627697562490296E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -32981,11 +32943,11 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <f>(114-F109)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>1.304145319049837E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -33017,11 +32979,11 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <f>(114-F110)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>1.4749262536873156E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -33053,11 +33015,11 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <f>(114-F111)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>6.0549604098742429E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -33089,11 +33051,11 @@
         <v>1</v>
       </c>
       <c r="K112">
-        <f>(114-F112)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>1.7388604253997825E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -33125,11 +33087,11 @@
         <v>1</v>
       </c>
       <c r="K113">
-        <f>(114-F113)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>1.2886197795373389E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -33161,11 +33123,11 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <f>(114-F114)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>1.3351963980748331E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -33197,11 +33159,11 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <f>(114-F115)/(114*56.5)</f>
+        <f t="shared" si="3"/>
         <v>8.0732805464989905E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K116">
         <f>SUM(K2:K115)</f>
         <v>0.99999999999999967</v>
